--- a/ZN_Data.xlsx
+++ b/ZN_Data.xlsx
@@ -799,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1072"/>
+  <dimension ref="A1:M1073"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44344,7 +44344,7 @@
         <v>110.36</v>
       </c>
       <c r="M1062">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1063" spans="1:13">
@@ -44385,7 +44385,7 @@
         <v>110.15</v>
       </c>
       <c r="M1063">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1064" spans="1:13">
@@ -44426,7 +44426,7 @@
         <v>108.12</v>
       </c>
       <c r="M1064">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1065" spans="1:13">
@@ -44467,7 +44467,7 @@
         <v>108.12</v>
       </c>
       <c r="M1065">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1066" spans="1:13">
@@ -44508,7 +44508,7 @@
         <v>108.12</v>
       </c>
       <c r="M1066">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1067" spans="1:13">
@@ -44549,7 +44549,7 @@
         <v>108.12</v>
       </c>
       <c r="M1067">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1068" spans="1:13">
@@ -44590,7 +44590,7 @@
         <v>108.12</v>
       </c>
       <c r="M1068">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1069" spans="1:13">
@@ -44631,7 +44631,7 @@
         <v>108.12</v>
       </c>
       <c r="M1069">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1070" spans="1:13">
@@ -44672,7 +44672,7 @@
         <v>108.12</v>
       </c>
       <c r="M1070">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1071" spans="1:13">
@@ -44713,7 +44713,7 @@
         <v>108.12</v>
       </c>
       <c r="M1071">
-        <v>0</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="1072" spans="1:13">
@@ -44754,7 +44754,48 @@
         <v>108.12</v>
       </c>
       <c r="M1072">
-        <v>0</v>
+        <v>49.78</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:13">
+      <c r="A1073" s="2">
+        <v>43902</v>
+      </c>
+      <c r="B1073">
+        <v>15880.8</v>
+      </c>
+      <c r="C1073">
+        <v>67819</v>
+      </c>
+      <c r="D1073">
+        <v>177972</v>
+      </c>
+      <c r="E1073">
+        <v>0.0342938</v>
+      </c>
+      <c r="F1073">
+        <v>2.624220351229007</v>
+      </c>
+      <c r="G1073">
+        <v>101.3535</v>
+      </c>
+      <c r="H1073">
+        <v>160011</v>
+      </c>
+      <c r="I1073">
+        <v>99.9896934518496</v>
+      </c>
+      <c r="J1073">
+        <v>117.769</v>
+      </c>
+      <c r="K1073">
+        <v>6.9906</v>
+      </c>
+      <c r="L1073">
+        <v>108.12</v>
+      </c>
+      <c r="M1073">
+        <v>49.78</v>
       </c>
     </row>
   </sheetData>
